--- a/spreadsheets/Sylas.xlsx
+++ b/spreadsheets/Sylas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D80CA-3274-4694-8051-4904FA1D3021}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BF615B-9CB4-47F3-8EFF-91ADA47AC5A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3195" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Champion</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/mlP1s9V.png</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,6 +806,9 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>80</v>
